--- a/result.xlsx
+++ b/result.xlsx
@@ -7309,7 +7309,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>AVERAGE( Inventories : Inventories )/ Net Sales</t>
+          <t>365*AVERAGE( Inventories : Inventories )/ Net Sales</t>
         </is>
       </c>
     </row>
@@ -7357,7 +7357,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>AVERAGE( Inventories : Inventories )/ COGS</t>
+          <t>365*AVERAGE( Inventories : Inventories )/ COGS</t>
         </is>
       </c>
     </row>
@@ -7405,7 +7405,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>AVERAGE( Sundry Debtors : Sundry Debtors )/ Net Sales</t>
+          <t>365*AVERAGE( Sundry Debtors : Sundry Debtors )/ Net Sales</t>
         </is>
       </c>
     </row>
@@ -7676,7 +7676,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>AVERAGE( Trade Payables : Trade Payables )/ Net Sales</t>
+          <t>365*AVERAGE( Trade Payables : Trade Payables )/ Net Sales</t>
         </is>
       </c>
     </row>
@@ -7724,7 +7724,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>AVERAGE( Trade Payables : Trade Payables )/ COGS</t>
+          <t>365*AVERAGE( Trade Payables : Trade Payables )/ COGS</t>
         </is>
       </c>
     </row>
